--- a/submission/various/LitertureReview.xlsx
+++ b/submission/various/LitertureReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Archiv\Dokumente\Uni\24s\SeminarThesis\submission\various\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5C88BB8-C2E0-4953-BDDD-A9B89A1DF6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E59F4AD-BBDE-4D6E-8C02-9300898FC636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="915" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{8F95D0CE-FCBD-4E94-9C2B-16245BB2A1AD}"/>
   </bookViews>
@@ -9469,7 +9469,7 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10247,7 +10247,7 @@
       <c r="N16" t="s">
         <v>1868</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="1" t="s">
         <v>1869</v>
       </c>
       <c r="P16" t="s">
@@ -10468,10 +10468,11 @@
     <hyperlink ref="O9" r:id="rId8" xr:uid="{011D747C-14D8-4E95-8C09-7373613EB6E2}"/>
     <hyperlink ref="O8" r:id="rId9" xr:uid="{88CA5BEF-0D32-46FF-9720-B957F27C6530}"/>
     <hyperlink ref="O13" r:id="rId10" xr:uid="{CBBF07FC-7CCD-4D11-9E74-908F36A59748}"/>
+    <hyperlink ref="O16" r:id="rId11" xr:uid="{70AFF35D-AF4E-455D-B3BE-734C53558FCC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
